--- a/rpeq/spanish_latAm/rpeq-p_esla_translation_process.xlsx
+++ b/rpeq/spanish_latAm/rpeq-p_esla_translation_process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalexand/github/instruments/rpeq/spanish_latAm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20248C9-A8BA-444C-932E-45117F743EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18996D2-3E3C-EC4F-A1FF-1289F3A1F514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="500" windowWidth="23540" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>measure</t>
   </si>
@@ -281,15 +281,33 @@
     <t>BACK: Should "rumor" be "a rumor" or "rumors"? --Spanish says "rumors"</t>
   </si>
   <si>
+    <t>FORWARD: Does "mala" describe intent in the same sense as "mean"?</t>
+  </si>
+  <si>
+    <t>FORWARD: Does "participar" describe the sense of "inclusion" of the original English? --confirmed</t>
+  </si>
+  <si>
     <t>BACK: Should "we're" be "were"? --confirmed
 FORWARD: The English distinction in question format ("a teen" versus "another teen") does not impact meaning to me, not even subtly.  Can we say "Un otro adolescente" to match?
-FORWARD: Does "molestar" give the sense of "bullied" (picked on)?</t>
-  </si>
-  <si>
-    <t>FORWARD: Does "mala" describe intent in the same sense as "mean"?</t>
-  </si>
-  <si>
-    <t>FORWARD: Does "participar" describe the sense of "inclusion" of the original English? --confirmed</t>
+FORWARD: Does "molestar" give the sense of "bullied" (picked on)? --confirmed "molestar" is most appropriate</t>
+  </si>
+  <si>
+    <t>Un adolescente chismeaba sobre mi hijo/a para que no les gustara a los demás.</t>
+  </si>
+  <si>
+    <t>Un adolescente dijo cosas malas sobre mi hijo/a para que la gente pensara que mi hijo/a era un "perdedor".</t>
+  </si>
+  <si>
+    <t>Un adolescente ayudó a mi hijo/a cuando tenía un problema.</t>
+  </si>
+  <si>
+    <t>Un adolescente fue amable y amistoso con mi hijo/a cuando necesitaba ayuda.</t>
+  </si>
+  <si>
+    <t>Un adolescente defendió a mi hijo/a cuando lo molestaban o lo excluían.</t>
+  </si>
+  <si>
+    <t>Un adolescente golpeó, pateó o empujó a mi hijo/a de mala manera.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,12 +628,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -779,15 +791,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1150,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1171,8 @@
     <col min="4" max="5" width="25.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36" style="1" customWidth="1"/>
     <col min="7" max="7" width="42" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="28.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1414,7 +1424,10 @@
         <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1436,8 +1449,8 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>88</v>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1506,7 +1519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1525,11 +1538,14 @@
       <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1551,8 +1567,11 @@
       <c r="G18" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1571,11 +1590,14 @@
       <c r="F19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1594,11 +1616,14 @@
       <c r="F20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1617,11 +1642,14 @@
       <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
